--- a/Filing Names/Filing Document Names.xlsx
+++ b/Filing Names/Filing Document Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blow\Desktop\Work\Quant_project\Scrape_Code\Filing Names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763DCE48-33EF-4980-AF31-75B28913E545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A4AE31-1D15-4FDC-8057-6B04AC139DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3430E8F-F423-46D9-A798-6C94FFF1451A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76A314B5-DAA8-4275-8B78-E3B79DAC26E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,18 +65,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Consolidated Balance Sheet</t>
   </si>
   <si>
     <t>Consolidated Statements of Operations and Comprehensive Income (Loss)</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Cash Flows</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Stockholder's (Deficit) Equity</t>
   </si>
 </sst>
 </file>
@@ -112,11 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,37 +421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA419B44-C663-49F2-8629-A2899337E201}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A559CFB9-3FF4-43CB-9BCA-6D54DC2EF201}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A2:D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>